--- a/app/src/main/assets/quiz_level1.xlsx
+++ b/app/src/main/assets/quiz_level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\MZ_FocusNews\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CA1A4F-9DD3-4E20-A69A-75BBFB4B3920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE8EFD-7754-4C70-8DB0-66008BB2F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="885" windowWidth="17700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>색을 구별하는 데 필요한 3가지 속성은 무엇일까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>톤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -729,6 +725,10 @@
   </si>
   <si>
     <t>육상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색을 구별하는 데 필요한 3가지 속성에 해당하지 않는 것은 무엇일까요?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1259,8 +1259,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1458,22 +1458,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1987,22 +1987,22 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2010,22 +2010,22 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2033,22 +2033,22 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2056,22 +2056,22 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2079,22 +2079,22 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2102,22 +2102,22 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
